--- a/O文档/万象说史计划表190323.xlsx
+++ b/O文档/万象说史计划表190323.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="14500" tabRatio="718"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24960" windowHeight="14540" tabRatio="718" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="写作营计划" sheetId="11" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="股份计算" sheetId="4" r:id="rId4"/>
     <sheet name="贡献明细" sheetId="5" r:id="rId5"/>
     <sheet name="写作营计划 (2)" sheetId="15" r:id="rId6"/>
+    <sheet name="基金卖出" sheetId="16" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">天马行空!$A$1:$L$24</definedName>
@@ -26,8 +27,39 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="All_Data_Readable.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr codePage="54936" sourceFile="Macintosh HD:Users:liangqiang:Downloads:All_data_201908011225:All_Data_Readable.csv" comma="1">
+      <textFields count="20">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="1552">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6427,7 +6459,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
+    <t>李家钰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪匡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐继尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许光达 中华人民共和国十大大将
+陈公博 伪中华民国国民政府代主席
+沈醉 军统三剑客
+王瑶卿 京剧演员，通天教主
+霍梅尼 伊朗精神领袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雪芹 中国长篇名著《红楼梦》的作者
+张作霖 东北王
+阿里 美国著名拳王
+陈玉成 太平天国英王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧·亨利 短篇小说家
+凯恩斯 “资本主义的‘救星’、“战后繁荣之父”
+亚当·斯密 《国富论》
+6月5日   世界环境日
+徐世昌 中华民国大总统、国务卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">袁崇焕 争议巨大的抗清名将
+罗伯特·斯科特 极地探险家，遇难南极
+陈乔年 陈独秀次子
+加富尔 意大利开国三杰之一
+郭布罗·润麒 婉容的弟弟，清朝最后一位国舅爷 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗尔纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王树声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王恭厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟小冬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌叔华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6435,39 +6538,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孟小冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李家钰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>林伯渠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>董存瑞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌叔华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王树声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗尔纲</t>
+    <t>张作霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐世昌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6475,15 +6554,1741 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>倪匡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐继尧</t>
+    <t>穆铁柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">药家鑫 药家鑫案
+琦君 《橘子红了》
+亨利·米勒 美国作家《北回归线》、《南回归线》
+图灵 计算机科学之父，人工智能之父
+冯白驹 领导琼崖纵队红旗二十年不倒 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周汝昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成吉思汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡风 作家，三次平反
+刘天华 中国近代民族音乐一代宗师、二胡鼻祖
+弗朗西斯·克里克 发现DNA双螺旋结构
+蒂姆·伯纳斯-李 万维网的发明者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狄更斯 英国作家
+涂长望 中国科协和九三学社的创始人
+1938年6月9日   花园口决堤事件
+乔治·史蒂芬森 铁道之父
+卢德铭 秋收起义总指挥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘光旦 清华四哲人之一 
+廖承志 廖仲恺之子
+曼施泰因 纳粹德国三大名将，“突击炮”发起人
+雷·查尔斯 节奏布鲁斯音乐的先驱，最伟大的歌手第2名
+曾中生 红四军政委</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈钧儒 最高人民法院院长，民盟主席
+图哈切夫斯基 苏联五元帅之一，大纵深战略，红色拿破仑
+约翰·韦恩 杰出的西部片演员
+殷夫 左联五烈士之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧格林沁 击溃太平军，擒林凤翔、李开芳；痛击英法联军
+华罗庚 誉为“中国现代数学之父”
+刘奎龄 中国动物画泰斗、翎毛走兽画大师 
+陆征祥 中华民国外交家
+奥托·斯科尔兹内 德国特种部队指挥官，“欧洲最危险的男人”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华君武 艺术家，漫画家，活动家
+屈武 民革中央主席
+太宰治 4次自杀的日本作家
+冼星海 中国近代著名作曲家、钢琴家《黄河大合唱》
+施洋 京汉铁路工人举行总罢工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢觉哉 第一任内务部部长，延安五老之一
+明骥 台湾新电影之父
+夏丏尊 文学家，教育家
+张瑞芳 李双双，话剧四大名旦
+潘兴 第一次世界大战时任美国远征军总司令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈化成 守卫吴淞，英勇殉国
+1924年6月16日   黄埔军校成立，举行开学典礼
+1888年：《国际歌》诞生
+1949年：《光明日报》创刊
+2002年6月16日  蓝极速网吧纵火案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许光达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯雪峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个姓氏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省深圳市龙岗区坂田星光之约6栋天琴座803 陈可薇，13423801026  邮政编码：518116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书《临川四梦》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万箭齐发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琦君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭政 中华人民共和国十大大将
+方君瑛 中国同盟会暗杀部，吗啡自杀
+裘法祖 中国外科之父
+约翰·罗杰·贝尔德 电视、光纤、雷达发明人
+格拉芙 网球史上至今唯一的年度金满贯得主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈乔年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张充和 嫁给老外的民国闺秀，合肥四姐妹
+小叶丹 与刘伯承彝海结盟。第一支少数民族地方红色武装
+阿蒙森 第一个到达南极点的人
+陈仪 二二八事件，最受争议的人物之一
+雷海宗 南开史学四大家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婉容 末代皇后
+嵯峨浩 溥杰的妻子，流浪的王妃
+新马师曾 香港著名粤剧演员、电影演员
+容国团 中国乒乓球第一个世界冠军，人生能有几回搏
+何泽慧 中国最早女性原子物理学家，中国的居里夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳亚子 南社发起人
+罗炳辉 新四军第二师师长，从奴隶到将军
+2011年6月21日   郭美美红十字会事件
+陈慕华 一胎化政策的参与者和政策执行者
+汤用彤 学贯中西的国学大师，哈佛三杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁崇焕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东陵盗宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慕和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">彭加木 罗布泊失踪
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏鼐 中国现代考古学的奠基人之一；人称“七国院士”
+牟其中 南德集团总裁，罐头换飞机
+华里丝·辛普森 让丈夫放弃王位的温莎公爵夫人
+太宰治 4次自杀的日本作家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈钧儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方君瑛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭加木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廖承志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴清源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冼星海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常书鸿 敦煌守护神
+耿飚 唯一没有军衔的国防部长
+郑成功 收复台湾
+图灵 计算机科学之父，人工智能之父
+爱德华八世 温莎公爵，爱美人不爱江山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萧军 “东北作家群”的领军人物，知名左翼作家
+李立三 领导南昌起义，共产党的最高领导人
+弗雷德·阿斯泰尔 百年来最伟大的男演员第5名
+1900年6月22日   发现莫高窟藏经洞
+约翰·迪林杰 美国抢劫24家银行的“头号公敌”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟伟 《亮剑》中李云龙原型之一
+谷超豪 数学家，国家最高科学技术奖 
+马寅初 经济学泰斗、人口学第一人
+马克·吕布 法国著名摄影师，拍摄50年代中国
+邵华 毛岸青之妻，少将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴冠中 中国现代中国画代表性画家之一、中国绘画大师
+迈克尔·杰克逊 美国歌手
+乔治·奥威尔 《动物庄园》和《1984》
+周逸群 湘鄂西红军的创始人之一
+邓稼先 设计了中国原子弹和氢弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石达开 太平天国翼王五千岁
+约瑟夫·史密斯 摩门教创始人
+1969年6月27日   石墙事件，同性恋维权的分水岭
+海伦·凯勒 第一个获得文学学士学位的盲聋人
+何香凝 女权革命的领袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢梭 法兰西启蒙运动三剑侠
+钱三强 中国原子弹之父
+麦迪逊 美国宪法之父
+张瑞芳 李双双，话剧四大名旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤恩伯 台儿庄战役，武汉会战，随枣会战
+杨德昌 台湾著名导演
+陈云裳 第三届“中国电影皇后”
+凯瑟琳·赫本 百年来最伟大女演员第1名，美国影坛第一夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄家驹 中国香港男歌手
+启功 教授、书画家、文物鉴定家、红学家、国学大师
+1908年6月30日  通古斯大爆炸
+刘峙 “福将”、“常胜将军”、“长腿将军”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮萨罗 100多人征服印加文明的文盲
+金善宝 中国现代小麦科学主要奠基人
+开尔文 热力学之父
+1945年6月26日   联合国宪章日，《联合国宪章》签署
+金九 韩国国父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢觉哉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明日报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏鼐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何泽慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小叶丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈慕华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓稼先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小钻风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书，失落的一代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤恩伯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月1日   中国共产党建党日
+2008年7月1日   杨佳袭警案
+雅诗·兰黛 创办了著名的化妆品品牌雅诗兰黛
+戴安娜王妃 人民的王妃
+王实味 延安整风运动中被捕，杀害
+张闻天 中国共产党早期的杰出领导人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海明威 美国作家
+赵南哲 韩国现代围棋之父
+詹姆斯·史都华 百年来最伟大的男演员第3名
+卢梭 法兰西启蒙运动三剑侠
+金善宝 中国现代小麦科学主要奠基人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯耀文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭小莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滕杰 （蓝衣社）力行社创始人、首任书记
+陈延年 陈独秀的长子，中共早期领导人
+杰斐逊 《美国独立宣言》主要起草人
+加里波第 发起千人远征，收复意大利南部 ，被誉为“两个世界的英雄”
+居里夫人 两届诺贝尔奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2009年7月5日   乌鲁木齐7·5打砸抢烧严重暴力犯罪事件
+多利 第一个成功克隆的哺乳动物
+巴纳姆 马戏团之王
+于光远 中国改革开放的见证人
+1943年，王稼祥首次提出“毛泽东思想”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱德 中华人民共和国十大元帅
+王云五 商务印书馆总经理，博士之父
+路易斯·阿姆斯特朗 爵士乐之父
+罗星汉 海洛因教父，缅甸首富
+李根源 国民党元老，修建腾冲国殇墓园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮定均 指挥中原突围 
+柯南·道尔 《福尔摩斯探案全集》
+徐锡麟 安庆刺杀安徽巡抚恩铭
+费雯·丽 电影演员，乱世佳人
+文强 第一个被执行死刑的正厅局级公安局长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王耀武 抗日将领，74军创始人
+邓华 开国上将
+赫茨尔 现代以色列的国父
+包拯 宋朝包青天
+黄鸣龙 有机化学家，研制中国首创口服避孕药甲地孕酮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流21期</t>
+  </si>
+  <si>
+    <t>流22期</t>
+  </si>
+  <si>
+    <t>流23期</t>
+  </si>
+  <si>
+    <t>流24期</t>
+  </si>
+  <si>
+    <t>美丽的花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗著名篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各有所长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一类动物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何泽慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢德铭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居里夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张寿臣 相声艺术第五代掌门人
+陆费逵 中华书局创办人
+1981年7月9日   成昆铁路列车坠桥事故，最惨重的铁路事故
+黄飞鸿 南拳流派，洪拳名家，医馆“宝芝林”
+王云五 商务印书馆总经理，博士之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉列 闻名世界的“吉列剃须刀”
+路易·达盖尔 发明摄影
+特斯拉 设计了现代交流电力系统
+加尔文 新教的重要派别──改革宗（或加尔文派）的创始人
+王克勤 一级杀敌英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金日成 朝鲜主要领导人
+洛克菲勒 美国第一位十亿富豪与全球首富
+郭布罗·润麒 婉容的弟弟，清朝最后一位国舅爷 
+1645年，多尔衮通告全国军民剃发
+1853年，黑船来航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流25期</t>
+  </si>
+  <si>
+    <t>流26期</t>
+  </si>
+  <si>
+    <t>流27期</t>
+  </si>
+  <si>
+    <t>流28期</t>
+  </si>
+  <si>
+    <t>流29期</t>
+  </si>
+  <si>
+    <t>流30期</t>
+  </si>
+  <si>
+    <t>流31期</t>
+  </si>
+  <si>
+    <t>流32期</t>
+  </si>
+  <si>
+    <t>钱三强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通古斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉密尔顿 美国宪法起草人之一与第一任美国财政部长
+马拉拉 最年轻17岁的诺贝尔奖
+龚建平 第一个因为受贿、假球、黑哨而被判刑入狱的裁判
+袁珂 中国著名神话学家
+李济 中国现代考古学家、中国考古学之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方东美 新儒学的哲学起源
+刘晓波 2010年诺贝尔和平奖得主
+盛世才 “新疆王”
+章文晋 促进中美建交
+陈瑞泰 烟草专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年7月14日   三里屯优衣库视频事件
+张露萍 中共女特工
+刘半农 新文化运动先驱
+关露 民国四大才女
+胡林翼 中兴四大名臣之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万里 “中共八大元老”之一
+范思哲 范思哲奢侈品牌创始人，被枪杀
+乐天宇 毛泽东同志的亲密友人
+宋霭龄 宋氏三姐妹的老大
+李玉琴 溥仪第四任妻子（福贵人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚当·斯密 《国富论》
+郎世宁 中国宫廷画家
+1942年7月17日 斯大林格勒战役，伤亡70万
+1900年7月17日 庚子俄难，海兰泡惨案
+咸丰 中国历史上最后一位有实际统治权的皇帝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴安娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰斐逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅诗兰黛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨师煊 我国数据库学科的奠基人之一
+宋任穷 上将；邓小平主政时期的“中共八大元老”之一
+沈理源 天津近代著名的建筑设计师
+魏敦瑞 研究北京人化石
+邓颖超 周恩来的妻子，中国妇女运动的先驱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰·迪林杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>织田信长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鲁木齐打砸抢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK-47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑正秋 第一代导演，中国电影之父、中国电影第一人。
+胡先骕 中国植物学的奠基人
+2009年7月16日   贾君鹏你妈妈喊你回家吃饭
+1945年7月16日   三位一体核试验成功，核时代开始
+玛格丽特·考特 女子网球运动员，胜率为91.74%，24个大满贯
+屈武 民革中央主席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋蔼龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄飞鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热播剧女主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名同姓的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓颖超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嵩焘 中国首位驻外使节，与曾国藩、左宗棠都是儿女亲家
+马恒昌 全国劳动模范
+简·奥斯汀 《傲慢与偏见》、《理智与情感》
+曼德拉 南非国父
+江亢虎 中国社会党创始人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李承晚 缔造大韩民国
+冯白驹 领导琼崖纵队红旗二十年不倒 
+彼特拉克 人文主义之父
+陈光标 中国首善
+埃德加·斯诺 美国著名记者《红星照耀中国》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟德尔 遗传学的奠基人
+彼特拉克 人文主义之父
+捷尔任斯基 苏联克格勃的前身──契卡的创始人，屠夫
+于化虎 《地雷战》的主人公原型
+颜文梁 中国第一代油画开拓者，中国现代绘画的奠基人之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关向应 贺龙的亲密战友，开辟晋绥根据地
+刘节 有气节的学者，王国维、梁启超、陈寅恪的弟子
+王大珩 获两弹一星功勋奖章
+海明威 美国作家
+沈殿霞 演员，肥肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路易丝·布朗 全球第一名试管婴儿
+万梓良 香港著名演员，一手提拔周星驰
+张发奎 中国共产党在南昌起义的军队为其部下
+胡兰成 著名汉奸文人，著有《今生今世》《山河岁月》等。
+陶行知 中国人民救国会和中国民主同盟的主要领导人之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武藤信义 长城一线击败20个中国师，被迫承认了满洲分离
+陈纳德 飞虎将军
+马可 作曲家，《咱们工人有力量》《南泥湾》
+小仲马 《茶花女》
+陈奕迅 香港著名男歌手
+甄子丹 中国香港影视男演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宝箴 维新变法的实权派风云人物，湖南近代兴起的关键人物
+1928年7月22日  平江起义
+1946年7月22日  大卫王酒店爆炸案 犹太人发动的恐怖袭击
+李秀成被捕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德雷福斯案件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛世才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄鸣龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈殿霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佟麟阁 抗日战争中殉国的第一位高级将领
+程思远 桂系的核心人物，林黛的父亲
+弗朗西斯·克里克 发现了脱氧核糖核酸（DNA）的双螺旋结构
+1976年7月28日   唐山大地震，造成248,211人死亡
+是川银藏 日本股市之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐山大地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴泓 《时尚》杂志社创始人之一
+汤飞凡 世界上发现重要病原体（沙眼衣原体）的第一个中国人
+熊希龄 民国第一任总理  
+2011年7月23日   7·23甬温线特别重大动车事故
+儿玉源太郎 日本第一智将，日本统治台湾的最大功臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嵩焘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尧茂书 第一位漂流长江的人
+僧格林沁 击溃太平军；第二次大沽口大捷，痛击英法联军
+谷崎润一郎 7次提名诺贝尔文学奖，感情泛滥
+大仲马 《三个火枪手》、《基督山伯爵》通俗小说之王
+玻利瓦尔 解放了玻利维亚、哥伦比亚、厄瓜多尔、秘鲁和委内瑞拉，被称为“美洲解放者”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔治·盖洛普 民意测验的创始人
+贝隆夫人 阿根廷的第一夫人
+艾德·盖恩 美国最有名的连环杀手之一
+翁文灏 行宪后首任行政院长，12号战犯，首位回归
+李奇微 朝鲜战争中挽救了联合国军而闻名于世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费玉清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郎世宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>润麒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯白驹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓琳 邓小平夫人
+荣德生 中国最大的民族资本家之一
+陈伯达 毛泽东政治秘书，是林彪、江青反革命集团主犯之一。
+汤显祖 明末戏剧家，《西厢记》、《牡丹亭》
+范文澜 历史学家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷崎润一郎 7次提名诺贝尔文学奖
+陈昌浩 原红四方面军政委，支持张国焘
+李·德富雷斯特 无线电之父
+陈小鲁 陈毅之子，妻为粟裕之女
+卢慕贞 孙中山元配夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周扬 党的“文艺路线”奠基人之一
+沈荩 揭露《中俄密约》，被杀
+菱刈隆 关东军司令，被称之为“军中之魁”。
+马步芳 马家军重要人物
+钱千里 中国电影演员及导演，被誉为“中国电影活档案”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马君武 北蔡南马
+李济 中国现代考古学家、中国考古学之父
+阿基诺夫人 亚洲首位民选女总统
+拉马克 生物学伟大的奠基人之一
+夏明翰 死了夏明翰，还有后来人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马季 中国新相声的代表人物
+贝尔 创建了贝尔电话公司
+崔健 中国摇滚之父
+吴君如 外号三姑，香港女演员
+1990年，伊拉克入侵科威特，海湾战争爆发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗瑞卿 中华人民共和国十大大将
+王洪文 “四人帮”之首
+杨尚昆 中华人民共和国主席
+程开甲 获两弹一星功勋奖章
+2005年：大陆动画《喜羊羊与灰太狼》播出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼特拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿玉源太郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张发奎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松井石根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢慕贞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秀成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊希龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关向应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴君如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣德生 中国最大的民族资本家之一
+梁从诫 自然之友；梁思成与林徽因之子
+路易斯·阿姆斯特朗 爵士乐之父
+奥巴马 美国历史上第一位非裔美国人总统
+德拉贡诺夫 设计SVD狙击步枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马麒 青海建省
+本田宗一郎 日本本田汽车创始人
+梦露 美国女演员
+米高扬 米格系列战机
+阿姆斯特朗 第一个踏上月球的宇航员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方志敏 闽浙（皖）赣革命根据地和红十军团的缔造者
+林白水 中国著名报人，新闻工作者
+保罗六世 天主教教宗 
+露西尔·鲍尔 美国喜剧女演员，电视剧女王
+亚历山大·弗莱明 发现青霉素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰戈尔 印度诗人、哲学家
+刘海粟 四大校长之一
+路易斯·李奇 发现的175万年前的东非人头盖骨
+野比大雄，日本电影哆啦A梦主角
+1927年 八七会议，武装暴动开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅兰芳 中国京剧表演艺术家
+星野道夫 特别是熊，是世界最著名的阿拉斯加摄影师。
+费德勒 网球之神
+王菲 著名华语女歌手
+刘节 政治运动中表现出的人格品质而受到后世尊敬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饶宗颐 全球华人国学奖终身成就奖
+张惠妹 华语流行乐女歌手
+1945年8月9日   长崎市原子弹爆炸
+谢贤 香港著名演员
+1945年：毛泽东发表《对日寇的最后一战》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟裕 中华人民共和国十大大将
+张云逸 中华人民共和国十大大将
+王力 著名汉语语法学家
+容国团 中国乒乓球乃至中国体育界第一个世界冠军
+加富尔 意大利开国三杰之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李维汉 中共中央统战部部长
+安德鲁·卡内基 钢铁大王，世界首富，慈善家
+王力 文革干将
+吴晗 中国著名历史学家，三家村之一，海瑞罢官
+木户孝允 日本维新三杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萌萌的字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名臣将相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流33期</t>
+  </si>
+  <si>
+    <t>流34期</t>
+  </si>
+  <si>
+    <t>流35期</t>
+  </si>
+  <si>
+    <t>流36期</t>
+  </si>
+  <si>
+    <t>流37期</t>
+  </si>
+  <si>
+    <t>流38期</t>
+  </si>
+  <si>
+    <t>流39期</t>
+  </si>
+  <si>
+    <t>流40期</t>
+  </si>
+  <si>
+    <t>僧格林沁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尧茂书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝隆夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈昌浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿玉源太郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马君武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱自清 《荷塘月色》《背影》
+陈嘉庚 著名的爱国华侨领袖
+林凤眠 中国美术学院创始人
+董明珠 格力创始人
+史蒂芬森 铁道之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝尔德 电视、光纤、雷达发明人
+李宗仁 台儿庄大捷
+潘光旦 清华四哲人之一 
+希区柯克 惊悚片大师
+郑律成 《八路军进行曲》，军歌之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张啸林 上海滩“青帮三大亨”，被军统刺杀
+周克华 爆头哥
+赫斯特 黄色新闻大王，新闻炒作的始作俑者
+王懿荣 为发现和收藏甲骨文第一人
+孙连仲 坚守台儿庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷锋 英雄楷模
+李德 共产国际派驻中国的军事顾问
+汤若望 中西文化交流不可忽视的人物
+1945年8月15日   日本无条件投降
+拉赫曼 孟加拉国父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳伦斯 阿拉伯的劳伦斯
+焦裕禄 “焦裕禄精神”缔造者
+艾瑞莎·弗兰克林 “灵魂歌后”，最伟大的歌手第1名
+孔祥熙 主理国民政府财政
+于敏 中国氢弹之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管桦 《小英雄雨来》，《听妈妈讲过去的事情》
+高岗 死后被开除党籍的“东北王”
+夏曦 湖南三杰，大清洗，在长征中落水无人救助而死
+蒋先云 “黄埔（军校）三杰”之首
+吴培文 发现并保护司母戊鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王洪文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿姆斯特朗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗瑞卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马德华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣德生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋渭水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢武铉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八七会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄飞鸿 南拳流派，洪拳名家，医馆“宝芝林”
+帕拉弟奥 文艺复兴时期北意大利最杰出的建筑大师
+王士珍 北洋三杰之首
+尤敏 金马影后第一人
+雷鸣远 天主教神父，我为爱中国而生，我为爱中国而死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华国锋 曾担任党和国家重要领导职务
+吴泓 《时尚》杂志社创始人之一
+李义江 同性恋连环杀手
+陆奥宗光 近代中日关系史上关键性的人物
+卜威廉 救世军创始人和第一任救世军大将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪东兴 毛泽东的警卫，怀仁堂事变的决策人之一
+阿基诺二世 菲律宾民主之父
+吴焕先 黄麻起义，鄂豫陕苏区创建人，红二十五军主要创建者
+方志敏 闽浙（皖）赣革命根据地和红十军团的缔造者
+陈立夫 中国国民党政治家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐才常 浏阳双杰，清末维新派领袖
+五世格达活佛 西藏昌都劝和，遇毒圆寂
+施今墨 北京四大名医”之一
+邓小平 推动现代中国的改革开放进程 
+龚自珍 文学家和改良主义的先驱者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褚民谊 伪中华民国国民政府外交部长
+瓦伦蒂诺 美国著名男演员，无法忘怀的美丽男人
+刘鹗 《老残游记》
+阎相文 民国历史上最短命的督军
+王朔 作家、编剧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆奥宗光 近代中日关系史上关键性的人物
+郭振清 《平原游击队》里的李向阳
+张謇 发展近代教育事业、民族工业
+苏轼 文学家
+李达 中共一大代表，1923年脱党，解放后重新入党</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成吉思汗 一代天骄
+尼采 西方现代哲学的开创者
+休谟 西方哲学历史中最重要的人物之一
+武元甲 越南的号称“红色拿破仑”
+冯如 中国航空之父
+陈果夫 民国时期政治人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈毅 中华人民共和国十大元帅
+张其昀 中国人文地理学的开山大师 提倡华学 创立全神教 
+查尔斯·林德伯格 首位完成单人不着陆飞行横跨大西洋
+拉瓦锡 近代化学之父，被送上断头台
+2005年8月26日   超级女声总决赛落幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅兰芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容国团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴尔扎克 现代法国小说之父
+连阔如 评书演员
+金大中 韩国民主斗士的象征，被誉为“亚洲的曼德拉”
+钱骥 中国人造卫星事业的先驱和奠基人
+科菲·安南 联合国第七任秘书长，诺贝尔和平奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库尔斯克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李维汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈嘉庚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王士珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当代明星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生死同年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书《史记》精选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈伯达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张啸林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿越时空的对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿合买提江 新疆三区革命主要领导人之一，飞机失事
+勒·柯布西耶 20世纪最重要的建筑师，功能主义建筑的泰斗
+郭兴福 郭兴福教学法，大比武，悲惨命运
+黄万里 水利专家，反三门峡工程，三峡工程
+郑成功 收复台湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭其骧 历史地理学家
+周培源 中国近代力学奠基人和理论物理奠基人之一
+汪明荃 香港殿堂级女艺人
+1963年 马丁·路德·金发表《我有一个梦想》
+1993年8月28日  王军霞创造了10000米世界锦标赛纪录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈克尔·杰克逊 美国歌手
+关行男 神风特攻队首次于实战中建功的纪录
+周友平 以性虐待的方式杀死6人
+苏炳添 首位突破10秒大关的黄种人
+1949年 苏联成功试爆第一颗原子弹，打破美国垄断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">彭湃 中国农民运动大王;汕尾市海陆丰起义领导者
+钱穆 中国最后一位士大夫、国学宗师
+杨殷 孙中山的邻居，省港大罢工重要领导者
+林则徐 清朝道光时期大臣、民族英雄
+张闻天 中国共产党早期的杰出领导人
+皮定均 指挥中原突围 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴安娜王妃 人民的王妃
+黄绍竑 新桂系三巨头的第二位
+骆玉笙 “骆派”京韵大鼓的创建者
+吴孟超 “中国肝胆外科之父”
+蔡英文 中华民国首位女性总统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路易十四 太阳王，在位时间最长的君主之一
+冯玉祥 基督将军、倒戈将军
+明石元二郎 把俄国闹的天翻地覆，一人可抵十个师团
+武藤信义 长城一线击败20个中国师，被迫承认满洲分离
+1923年9月1日   关东大地震，死亡10w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托尔金 《魔戒》作者
+顾拜旦 奥林匹克之父
+胡志明 现代越南国父
+杨秀清 太平天国东王
+1970年 台湾记者登上钓鱼岛，保钓运动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张静江 国民党四大元老
+赵尔巽 东三省总督、清史馆馆长
+克伦威尔 征服苏格兰、英格兰、爱尔兰
+陈梦家 “新月派”代表诗人，自杀的右派
+张宗昌 奉系军阀,狗肉将军、混世魔王、长腿将军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜月笙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华国锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑律成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白令海峡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">巴尔扎克
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王军霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪东兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史怀哲 人道精神划时代伟人
+胡文虎 虎标万金油，《星岛日报》
+向警予 中国共产党惟一的女创始人
+约翰·麦卡锡 人工智能之父
+1998年 Google公司成立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张思德 为人民服务的代名词
+特蕾莎修女 二十世纪最受尊敬人物榜单之首
+左宗棠 晚清重臣，著名湘军将领，洋务派首领。
+黎锦晖 中国流行音乐之父
+金怡濂 “中国巨型计算机之父
+吴秀波 中国大陆男演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张季鸾 民国著名报人，《大公报》
+杨虎城 民国陕军将领。刀客出身。“西安事变”
+小萝卜头 最小的革命烈士
+帕瓦罗蒂 世界著名三大男高音之一
+黑泽明 电影天皇，电影界的"莎士比亚"
+玛格丽特·桑格 计划生育运动创始人、国际领袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李香兰 歌手，演员《夜来香》，《何日君再来》
+苏莱曼大帝 奥斯曼帝国舰队称霸地中海、红海和波斯湾
+常宝华 抗美援朝的相声兄弟
+袁隆平 世界杂交水稻之父
+1901年 签订辛丑条约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张爱玲 海外文坛“祖师奶奶”，《金锁记》《倾城之恋》
+曹靖华 苏联文学翻译巨匠，《世界文学》主编
+9月8日   国际扫盲日
+1945年 “东京玫瑰”户栗郁子在美国被捕
+陈建功 数学家，数学教育家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐才常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘鹗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同名皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方振武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉瓦锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈果夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76号魔窟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁隆平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张爱玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋翊武 "武昌首义的主要组织者和领导者 
+查理·义律 占领香港
+1976年 毛泽东逝世
+顾毓琇 江泽民和朱镕基的老师。清华大学工学院的创始人
+彭雪枫 新四军第四师师长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王揖唐 伪华北政务委员会委员长
+玛丽·沃斯通克拉夫特 女权主义哲学家的鼻祖之一
+叶挺 新四军重要领导者之一，著名军事家
+马云 阿里巴巴集团创始人
+9月10日   教师节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1971年 林彪坠亡蒙古
+叶群 林彪妻子，国民党少将之女
+何鲁 曾破解世界三大数学难题之一，九三学社创建人
+孙科 孙中山之子，中华民国史上唯一的三院院长
+周谷城 打破以欧洲为中心的旧的世界史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈三立 中国最后一位传统诗人
+但丁 全世界最伟大的作家之一
+冯占海 吉林抗日第一人
+梅思平 五四运动先锋，叛国罪被判处死刑
+柳直荀 我失骄杨君失柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄公略 红六军和红三军军长
+布鲁内尔 最伟大100名英国人评选名列第二
+左宝贵 清末著名爱国将领，甲午三英之一
+马可·波罗 《马可·波罗游记》
+孙铭武 抗日英烈名录第一位，辽东血盟抗日救国军总司令
+蔡依林 华语流行乐女歌手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏炳添</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张闻天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛泽东逝世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋 复辟的“辫帅”
+赫鲁晓夫 苏联最高领导人，平反大清洗，冷战
+孔祥熙 主理国民政府财政
+熊庆来 中国现代数学先驱
+2001年 911事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯玉祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨秀清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫鲁晓夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰尼·卡什 美国著名乡村歌手，《Hurt》
+续范亭 著名抗日爱国将领，中山陵前剖腹
+释圆瑛 中国近代佛教领袖，中国佛教协会首届会长
+张国荣 演员歌手
+杰西·欧文斯 现代奥林匹克史上最伟大的运动员之一
+姚明 中国篮球巨星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张国荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈梦家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子湫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡依林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡泊文人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真假反贼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书《黑天鹅》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省河源市源城区东环路南2号，小钻风18807623538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省河源市源城区东环路南2号，小钻风18807623538</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九一八事变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶挺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐白石 中国绘画大师
+殷海光 台湾戒严时期的自由主义代表人物
+袁世凯 中国近代史上著名的政治家、军事家，北洋军阀领袖
+李光耀 新加坡国父
+范冰冰 华语影视女演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨度 近代奇人，拥护袁世凯，加入国民党、共产党
+周君廉 周生生集团创办人
+邓世昌 海军将领、民族英雄
+陈师曾 《中国绘画史》
+2011年 占领华尔街
+聂磊 山东青岛黑社会头目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰臣秀吉 完成日本统一，结束战国乱世
+冯子材 清末将领、民族英雄抗法英雄
+张秉贵 “一抓准”全国劳模
+张献忠 明末民变首领之一
+1931年 九一八事变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱光潜 美学大家
+屈银华 首次从北坡登顶珠穆朗玛峰
+司徒雷登 筹建燕京大学，《在华五十年》
+高枫 演唱《大中国》的歌手
+鲁若晴 白血病的“网络名人”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内山完造 鲁迅挚友，中日友好活动家
+赫德 担任晚清海关总税务司48年之久
+缪荃孙 中国近代藏书家，中国近代图书馆的鼻祖
+谭人凤 辛亥革命，坚守武昌的总司令
+胡歌 内地演员，《仙剑奇侠传》、《琅琊榜》
+张曼玉 香港著名女演员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐向前 中华人民共和国十大元帅
+付心德 中国“抗战老兵活化石”
+朱执信 孙中山的文胆
+皇太极 正式建立中国最后一个封建王朝——清朝
+安倍晋三 现任日本内阁总理大臣（即第98任日本首相）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈炯明 民国军事家、广东军政领袖
+谭延闿 参与护国运动；民国四大书法家之首
+李银桥 毛泽东的卫士长
+袁崇焕 争议巨大的抗清名将
+霍梅尼 伊朗精神领袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗洛伊德 创立精神分析理论
+郭俊卿 中国惟一的女特等战斗英雄、“现代花木兰”
+高锟 2009年获诺贝尔物理学奖，光纤通讯之父
+郑和 下西洋
+雷·查尔斯 节奏布鲁斯音乐的先驱，最伟大的歌手第2名
+韩寒 中国作家、导演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈佛 哈佛大学创始人
+汤显祖 明末戏剧家，《西厢记》、《牡丹亭》
+关之琳 感情泛滥的十三姨
+顾城 朦胧诗主要代表人物
+赵树理 开创的文学“山药蛋派”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1941年，狼牙山五壮士
+廖承志 廖仲恺之子
+摩尔根 基因学说的创始人 
+鲁迅 革命文学的旗手
+乾隆 清朝皇帝，十全老人
+毛泽覃 毛泽东的弟弟，井冈山会师的重要联络人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户栗郁子 东京玫瑰
+于光远 著名经济学家，中国改革开放的见证人
+龚自珍 文学家和改良主义的先驱者
+巴甫洛夫 创立条件反射学说，第一位在生理学领域获诺贝尔奖
+小威廉姆斯 公开赛时代最多大满贯冠军的女子选手
+马海德 第一个加入中国国籍的外国人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛泽民 中国国家银行第一任行长
+陈潭秋 中国共产党创始人之一
+休·赫夫纳 《花花公子》杂志的创刊人及主编
+魏特琳 见证南京大屠杀
+星野道夫 特别是熊，是世界最著名的阿拉斯加摄影师
+刘德华 香港乐坛“四大天王”之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭嗣同 浏阳双杰，“戊戌六君子”之一
+路易·巴斯德 微生物学之父
+哈勃 证实了银河系外其他星系的存在，星系天文学之父
+臧天朔 中国摇滚乐歌手
+木村兵太郎 日本陆军大将，仰光大屠杀，被称为“缅甸屠夫”
+方舟子 科普作家、网络名人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南怀瑾 备受争议的著名国学大师
+张其昀 中国人文地理学的开山大师 提倡华学 创立全神教 
+傅抱石 著名国画大师，抱石皴
+左拉 自然主义文学的代表人物
+吴大猷 中国物理学之父
+2013年 上海自由贸易区正式挂牌成立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备选人物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石评梅 近现代女作家、革命活动家，“民国四大才女”之一
+李石曾 国民党四大元老
+努尔哈赤 后金的创建者、清朝的主要奠基人
+9月30日   烈士纪念日，人民英雄纪念碑奠基日
+李小璐 中国内地影视女演员
+汤飞凡 世界上发现重要病原体（沙眼衣原体）的第一个中国人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月1日   中华人民共和国国庆节
+杨振宁 最早的华人诺奖得主
+黄克诚 中华人民共和国十大大将
+王若飞 老一辈无产阶级革命家，著名的“四八”烈士。
+路易斯·李奇 发现的175万年前的东非人头盖骨
+朱瑞 中国人民解放军炮兵之父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡文虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粤海饮茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁世凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓世昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯占海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨虎城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴全社会责任混合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到账金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒指数分级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费行业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信达澳银新能源产业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实全球互联网股票（QDII）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国富中小盘股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝，部分卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方新兴消费增长分级股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达消费行业股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上投摩根大盘蓝筹股票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉实基本面50指数（LOF）A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇丰晋信大盘股票A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交行，部分卖出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6491,11 +8296,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[$-804]aaaa;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;\ aaaa;@"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -6591,7 +8397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6646,6 +8452,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -6665,7 +8483,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1168">
+  <cellStyleXfs count="1344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7834,8 +9652,184 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7988,8 +9982,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1168">
+  <cellStyles count="1344">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -8570,6 +10600,94 @@
     <cellStyle name="超链接" xfId="1162" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1164" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1342" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -9157,6 +11275,94 @@
     <cellStyle name="访问过的超链接" xfId="1163" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1165" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1343" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9168,7 +11374,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -9594,34 +11800,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AE213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J63" sqref="J63"/>
+      <selection pane="bottomRight" activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="12" style="13" customWidth="1"/>
-    <col min="3" max="3" width="55.83203125" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="21" customWidth="1"/>
-    <col min="6" max="11" width="9.33203125" style="21" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="27" customWidth="1"/>
-    <col min="13" max="17" width="9.33203125" style="21" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="21" customWidth="1"/>
-    <col min="19" max="21" width="11.6640625" style="21" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="27" customWidth="1"/>
-    <col min="23" max="24" width="11.6640625" style="21" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="65" customWidth="1"/>
+    <col min="2" max="2" width="12" style="62" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="5" width="11" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="21" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="21" customWidth="1"/>
+    <col min="9" max="10" width="9.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="27" customWidth="1"/>
+    <col min="12" max="16" width="9.33203125" style="21" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="21" customWidth="1"/>
+    <col min="18" max="21" width="9.33203125" style="21" customWidth="1"/>
+    <col min="22" max="24" width="11.6640625" style="21" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="27" customWidth="1"/>
     <col min="26" max="27" width="11.6640625" style="21" customWidth="1"/>
     <col min="28" max="28" width="13.1640625" style="21" customWidth="1"/>
+    <col min="29" max="30" width="11.6640625" style="21" customWidth="1"/>
+    <col min="31" max="31" width="13.1640625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="18" customFormat="1">
+    <row r="1" spans="1:31" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>83</v>
       </c>
@@ -9629,1391 +11838,3513 @@
         <v>93</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>84</v>
+        <v>1521</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>1108</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>1154</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="I1" s="20" t="s">
+        <v>889</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>1097</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>889</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="N1" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="N1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="O1" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="R1" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="W1" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="X1" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="Y1" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AC1" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="75">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:31" ht="75">
+      <c r="A2" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="61">
         <v>43547</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>1027</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="J2" s="30" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="75">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:31" ht="75">
+      <c r="A3" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="61">
         <v>43548</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>1028</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="T3" s="30" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="60">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:31" ht="60">
+      <c r="A4" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="61">
         <v>43549</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>994</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="P4" s="30" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="75">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:31" ht="75">
+      <c r="A5" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="61">
         <v>43550</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>995</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="O5" s="36" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="60">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:31" ht="60">
+      <c r="A6" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="61">
         <v>43551</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>996</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="K6" s="39" t="s">
         <v>1048</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="L6" s="30" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="60">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:31" ht="60">
+      <c r="A7" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="61">
         <v>43552</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>997</v>
       </c>
-      <c r="K7" s="50" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="J7" s="50" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="75">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:31" ht="75">
+      <c r="A8" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="61">
         <v>43553</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>998</v>
       </c>
-      <c r="N8" s="49" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="S8" s="49" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="75">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:31" ht="75">
+      <c r="A9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="61">
         <v>43554</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>1035</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="75">
-      <c r="A10" s="17" t="s">
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="1:31" ht="75">
+      <c r="A10" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="61">
         <v>43555</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>999</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="N10" s="30" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="75">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:31" ht="75">
+      <c r="A11" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="61">
         <v>43556</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>1036</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="T11" s="30" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="75">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:31" ht="75">
+      <c r="A12" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="61">
         <v>43557</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>1037</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="P12" s="30" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="75">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:31" ht="75">
+      <c r="A13" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="61">
         <v>43558</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>1038</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="J13" s="39" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="60">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:31" ht="60">
+      <c r="A14" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="61">
         <v>43559</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>1039</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="O14" s="30" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="75">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:31" ht="75">
+      <c r="A15" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="61">
         <v>43560</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>1055</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="L15" s="39" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="75">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:31" ht="75">
+      <c r="A16" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="61">
         <v>43561</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>1060</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="K16" s="39" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="75">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:20" ht="75">
+      <c r="A17" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="61">
         <v>43562</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>1056</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="S17" s="30" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="75">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:20" ht="75">
+      <c r="A18" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="61">
         <v>43563</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>1057</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="J18" s="39" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="60">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:20" ht="60">
+      <c r="A19" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="61">
         <v>43564</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>1063</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="39" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="39" t="s">
         <v>1065</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="M19" s="52"/>
+      <c r="R19" s="25" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="75">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:20" ht="75">
+      <c r="A20" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="61">
         <v>43565</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>1075</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="N20" s="39" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="60">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:20" ht="60">
+      <c r="A21" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="61">
         <v>43566</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>1058</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="T21" s="39" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="75">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:20" ht="75">
+      <c r="A22" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="61">
         <v>43567</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>1072</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="P22" s="39" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="75">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:20" ht="75">
+      <c r="A23" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="61">
         <v>43568</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>1071</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="O23" s="30" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="75">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:20" ht="75">
+      <c r="A24" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="61">
         <v>43569</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>1073</v>
       </c>
-      <c r="M24" s="30" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="L24" s="30" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="75">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:20" ht="75">
+      <c r="A25" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="61">
         <v>43570</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>1074</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="J25" s="39" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="60">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:20" ht="60">
+      <c r="A26" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="61">
         <v>43571</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>1084</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="K26" s="39" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="75">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:20" ht="75">
+      <c r="A27" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="61">
         <v>43572</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>1085</v>
       </c>
-      <c r="N27" s="39" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="S27" s="39" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="60">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:20" ht="60">
+      <c r="A28" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="61">
         <v>43573</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>1086</v>
       </c>
-      <c r="P28" s="30" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="T28" s="30" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="60">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:20" ht="60">
+      <c r="A29" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="61">
         <v>43574</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>1087</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="J29" s="30" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M29" s="30" t="s">
         <v>1098</v>
       </c>
-      <c r="K29" s="30" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="60">
-      <c r="A30" s="16" t="s">
+    </row>
+    <row r="30" spans="1:20" ht="60">
+      <c r="A30" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="61">
         <v>43575</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>1088</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="I30" s="30" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M30" s="29" t="s">
         <v>1118</v>
       </c>
-      <c r="G30" s="30" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="75">
-      <c r="A31" s="17" t="s">
+    </row>
+    <row r="31" spans="1:20" ht="75">
+      <c r="A31" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="61">
         <v>43576</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>1089</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="39" t="s">
         <v>1109</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="K31" s="30" t="s">
+      <c r="H31" s="39"/>
+      <c r="J31" s="30" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="75">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:20" ht="75">
+      <c r="A32" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="61">
         <v>43577</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>1090</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="N32" s="30" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="75">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:20" ht="75">
+      <c r="A33" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="61">
         <v>43578</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>1091</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="P33" s="30" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="75">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:20" ht="75">
+      <c r="A34" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="61">
         <v>43579</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>1092</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="M34" s="39" t="s">
         <v>1132</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="O34" s="39" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="60">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:20" ht="60">
+      <c r="A35" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="61">
         <v>43580</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>1112</v>
       </c>
-      <c r="M35" s="24" t="s">
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="L35" s="24" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="75">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:20" ht="75">
+      <c r="A36" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="61">
         <v>43581</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>1113</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="J36" s="39" t="s">
         <v>1119</v>
       </c>
-      <c r="L36" s="30" t="s">
+      <c r="K36" s="30" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="60">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:20" ht="60">
+      <c r="A37" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="61">
         <v>43582</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>1114</v>
       </c>
-      <c r="N37" s="30" t="s">
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="S37" s="30" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="60">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:20" ht="60">
+      <c r="A38" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="61">
         <v>43583</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>1115</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="M38" s="30" t="s">
         <v>1118</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="R38" s="25" t="s">
         <v>1127</v>
       </c>
-      <c r="P38" s="27" t="s">
+      <c r="T38" s="27" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="75">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:20" ht="75">
+      <c r="A39" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="61">
         <v>43584</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>1116</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="I39" s="30" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M39" s="30" t="s">
         <v>1162</v>
       </c>
-      <c r="G39" s="30" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="60">
-      <c r="A40" s="16" t="s">
+    </row>
+    <row r="40" spans="1:20" ht="60">
+      <c r="A40" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="61">
         <v>43585</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>1117</v>
       </c>
-      <c r="K40" s="39" t="s">
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="J40" s="39" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="75">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:20" ht="75">
+      <c r="A41" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="61">
         <v>43586</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>1128</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="30" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="75">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:20" ht="75">
+      <c r="A42" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="61">
         <v>43587</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>1129</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="M42" s="30" t="s">
         <v>1134</v>
       </c>
-      <c r="J42" s="30" t="s">
+      <c r="N42" s="30" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="75">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:20" ht="75">
+      <c r="A43" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="61">
         <v>43588</v>
       </c>
       <c r="C43" s="19" t="s">
         <v>1130</v>
       </c>
-      <c r="I43" s="29" t="s">
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="P43" s="29" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="75">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:20" ht="75">
+      <c r="A44" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="61">
         <v>43589</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>1143</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="J44" s="30" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M44" s="30" t="s">
         <v>1159</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="O44" s="30" t="s">
         <v>1144</v>
       </c>
-      <c r="K44" s="30" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="75">
-      <c r="A45" s="17" t="s">
+    </row>
+    <row r="45" spans="1:20" ht="75">
+      <c r="A45" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="61">
         <v>43590</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>1131</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="K45" s="30" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="75">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:20" ht="75">
+      <c r="A46" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="61">
         <v>43591</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>1155</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="H46" s="30" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="75">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:20" ht="75">
+      <c r="A47" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="61">
         <v>43592</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>1149</v>
       </c>
-      <c r="M47" s="30" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="L47" s="30" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="75">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:20" ht="75">
+      <c r="A48" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="61">
         <v>43593</v>
       </c>
       <c r="C48" s="19" t="s">
         <v>1150</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="J48" s="30" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M48" s="30" t="s">
         <v>1172</v>
       </c>
-      <c r="K48" s="30" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="75">
-      <c r="A49" s="16" t="s">
+    </row>
+    <row r="49" spans="1:19" ht="75">
+      <c r="A49" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="61">
         <v>43594</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>1164</v>
       </c>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="30" t="s">
         <v>1190</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="M49" s="30" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="75">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:19" ht="75">
+      <c r="A50" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="61">
         <v>43595</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>1151</v>
       </c>
-      <c r="N50" s="30" t="s">
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="S50" s="30" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="60">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:19" ht="60">
+      <c r="A51" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="61">
         <v>43596</v>
       </c>
       <c r="C51" s="19" t="s">
         <v>1152</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="I51" s="30" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M51" s="30" t="s">
         <v>1188</v>
       </c>
-      <c r="G51" s="30" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="75">
-      <c r="A52" s="17" t="s">
+    </row>
+    <row r="52" spans="1:19" ht="75">
+      <c r="A52" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="61">
         <v>43597</v>
       </c>
       <c r="C52" s="19" t="s">
         <v>1153</v>
       </c>
-      <c r="J52" s="30" t="s">
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="N52" s="30" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="75">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:19" ht="75">
+      <c r="A53" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="61">
         <v>43598</v>
       </c>
       <c r="C53" s="19" t="s">
         <v>1171</v>
       </c>
-      <c r="K53" s="36" t="s">
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="J53" s="36" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="75">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:19" ht="75">
+      <c r="A54" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="61">
         <v>43599</v>
       </c>
       <c r="C54" s="19" t="s">
         <v>1166</v>
       </c>
-      <c r="F54" s="51" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H54" s="30" t="s">
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="O54" s="30" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="75">
-      <c r="A55" s="16" t="s">
+    <row r="55" spans="1:19" ht="75">
+      <c r="A55" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="61">
         <v>43600</v>
       </c>
       <c r="C55" s="19" t="s">
         <v>1167</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="M55" s="30" t="s">
         <v>1201</v>
       </c>
-      <c r="I55" s="30" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="75">
-      <c r="A56" s="16" t="s">
+      <c r="P55" s="30" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="75">
+      <c r="A56" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="61">
         <v>43601</v>
       </c>
       <c r="C56" s="19" t="s">
         <v>1175</v>
       </c>
-      <c r="F56" s="57"/>
-      <c r="L56" s="30" t="s">
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="K56" s="30" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="75">
-      <c r="A57" s="16" t="s">
+      <c r="M56" s="57"/>
+    </row>
+    <row r="57" spans="1:19" ht="75">
+      <c r="A57" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="61">
         <v>43602</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>1168</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="H57" s="30" t="s">
         <v>1198</v>
       </c>
-      <c r="K57" s="30" t="s">
+      <c r="J57" s="30" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="60">
-      <c r="A58" s="16" t="s">
+    <row r="58" spans="1:19" ht="60">
+      <c r="A58" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="61">
         <v>43603</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>1169</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="L58" s="30" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M58" s="30" t="s">
         <v>1210</v>
       </c>
-      <c r="M58" s="30" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="75">
-      <c r="A59" s="17" t="s">
+    </row>
+    <row r="59" spans="1:19" ht="75">
+      <c r="A59" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="61">
         <v>43604</v>
       </c>
       <c r="C59" s="19" t="s">
         <v>1192</v>
       </c>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="39" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="75">
-      <c r="A60" s="16" t="s">
+    <row r="60" spans="1:19" ht="75">
+      <c r="A60" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="61">
         <v>43605</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>1181</v>
       </c>
-      <c r="K60" s="30" t="s">
-        <v>1218</v>
-      </c>
-      <c r="N60" s="29" t="s">
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="J60" s="30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="S60" s="29" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="60">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:19" ht="60">
+      <c r="A61" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="61">
         <v>43606</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>1182</v>
       </c>
-      <c r="G61" s="30" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="75">
-      <c r="A62" s="16" t="s">
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="I61" s="58" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="75">
+      <c r="A62" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="61">
         <v>43607</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>1183</v>
       </c>
-      <c r="E62" s="29" t="s">
-        <v>1219</v>
-      </c>
-      <c r="I62" s="24" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="75">
-      <c r="A63" s="16" t="s">
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="P62" s="24" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="75">
+      <c r="A63" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="61">
         <v>43608</v>
       </c>
       <c r="C63" s="19" t="s">
         <v>1184</v>
       </c>
-      <c r="J63" s="29" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="60">
-      <c r="A64" s="16" t="s">
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="M63" s="58" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N63" s="58" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="60">
+      <c r="A64" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="61">
         <v>43609</v>
       </c>
       <c r="C64" s="19" t="s">
         <v>1185</v>
       </c>
-      <c r="H64" s="25" t="s">
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="O64" s="58" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="75">
-      <c r="A65" s="16" t="s">
+    <row r="65" spans="1:16" ht="75">
+      <c r="A65" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="61">
         <v>43610</v>
       </c>
       <c r="C65" s="19" t="s">
         <v>1186</v>
       </c>
-      <c r="F65" s="21" t="s">
-        <v>1217</v>
-      </c>
-      <c r="L65" s="52" t="s">
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="H65" s="30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K65" s="59" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="60">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:16" ht="60">
+      <c r="A66" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="61">
         <v>43611</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>1187</v>
       </c>
-      <c r="K66" s="52" t="s">
-        <v>1220</v>
-      </c>
-      <c r="M66" s="42" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="75">
-      <c r="A67" s="16" t="s">
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="J66" s="39" t="s">
+        <v>1223</v>
+      </c>
+      <c r="L66" s="41" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="75">
+      <c r="A67" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="61">
         <v>43612</v>
       </c>
       <c r="C67" s="19" t="s">
         <v>1203</v>
       </c>
-      <c r="F67" s="25" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="75">
-      <c r="A68" s="16" t="s">
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="M67" s="58" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="75">
+      <c r="A68" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="61">
         <v>43613</v>
       </c>
       <c r="C68" s="19" t="s">
         <v>1204</v>
       </c>
-      <c r="D68" s="51" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="75">
-      <c r="A69" s="16" t="s">
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="30" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="75">
+      <c r="A69" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="61">
         <v>43614</v>
       </c>
       <c r="C69" s="19" t="s">
         <v>1205</v>
       </c>
-      <c r="I69" s="25" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="75">
-      <c r="A70" s="16" t="s">
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="P69" s="30" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="75">
+      <c r="A70" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="61">
         <v>43615</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>1206</v>
       </c>
-      <c r="G70" s="25" t="s">
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="I70" s="58" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J70" s="58" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="60">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:16" ht="60">
+      <c r="A71" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="61">
         <v>43616</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>1207</v>
       </c>
-      <c r="E71" s="21" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="75">
-      <c r="A72" s="16" t="s">
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="I71" s="58" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N71" s="30" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="75">
+      <c r="A72" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="61">
         <v>43617</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>1208</v>
       </c>
-      <c r="J72" s="21" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="75">
-      <c r="A73" s="17" t="s">
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="M72" s="58" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="75">
+      <c r="A73" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="61">
         <v>43618</v>
       </c>
       <c r="C73" s="19" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="16" t="s">
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="J73" s="30" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="75">
+      <c r="A74" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="61">
         <v>43619</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="16" t="s">
+      <c r="C74" s="19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="K74" s="30" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="60">
+      <c r="A75" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="61">
         <v>43620</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="16" t="s">
+      <c r="C75" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="O75" s="30" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="75">
+      <c r="A76" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="61">
         <v>43621</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="16" t="s">
+      <c r="C76" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="H76" s="30" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="75">
+      <c r="A77" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="61">
         <v>43622</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="16" t="s">
+      <c r="C77" s="19" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="L77" s="30" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M77" s="30" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="75">
+      <c r="A78" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="61">
         <v>43623</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="16" t="s">
+      <c r="C78" s="19" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="30" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J78" s="58" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="60">
+      <c r="A79" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="14">
+      <c r="B79" s="61">
         <v>43624</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="17" t="s">
+      <c r="C79" s="19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="I79" s="30" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="75">
+      <c r="A80" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80" s="61">
         <v>43625</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="16" t="s">
+      <c r="C80" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="P80" s="30" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="75">
+      <c r="A81" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="14">
+      <c r="B81" s="61">
         <v>43626</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="16" t="s">
+      <c r="C81" s="19" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="M81" s="30" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="60">
+      <c r="A82" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B82" s="14">
+      <c r="B82" s="61">
         <v>43627</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="16" t="s">
+      <c r="C82" s="19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="K82" s="30" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="90">
+      <c r="A83" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="14">
+      <c r="B83" s="61">
         <v>43628</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="16" t="s">
+      <c r="C83" s="19" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="J83" s="58" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="75">
+      <c r="A84" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="61">
         <v>43629</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="16" t="s">
+      <c r="C84" s="19" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="M84" s="30" t="s">
+        <v>1278</v>
+      </c>
+      <c r="O84" s="24" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="75">
+      <c r="A85" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="61">
         <v>43630</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="16" t="s">
+      <c r="C85" s="19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="H85" s="58" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="75">
+      <c r="A86" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="61">
         <v>43631</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="17" t="s">
+      <c r="C86" s="19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="L86" s="30" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="75">
+      <c r="A87" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="14">
+      <c r="B87" s="61">
         <v>43632</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="16" t="s">
+      <c r="C87" s="19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="30" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="60">
+      <c r="A88" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="61">
         <v>43633</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="16" t="s">
+      <c r="C88" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="J88" s="58" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="75">
+      <c r="A89" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="61">
         <v>43634</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="16" t="s">
+      <c r="C89" s="19" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="58" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="60">
+      <c r="A90" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="61">
         <v>43635</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="16" t="s">
+      <c r="C90" s="19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="I90" s="58" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="75">
+      <c r="A91" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B91" s="61">
         <v>43636</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="16" t="s">
+      <c r="C91" s="19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="P91" s="51" t="s">
+        <v>1309</v>
+      </c>
+      <c r="R91" s="60" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="75">
+      <c r="A92" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B92" s="61">
         <v>43637</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="16" t="s">
+      <c r="C92" s="19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="K92" s="58" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="75">
+      <c r="A93" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B93" s="14">
+      <c r="B93" s="61">
         <v>43638</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="17" t="s">
+      <c r="C93" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="H93" s="30" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="75">
+      <c r="A94" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="61">
         <v>43639</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="16" t="s">
+      <c r="C94" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="J94" s="58" t="s">
+        <v>1294</v>
+      </c>
+      <c r="O94" s="58" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="75">
+      <c r="A95" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="61">
         <v>43640</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="16" t="s">
+      <c r="C95" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="M95" s="58" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="75">
+      <c r="A96" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B96" s="14">
+      <c r="B96" s="61">
         <v>43641</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="16" t="s">
+      <c r="C96" s="19" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="G96" s="30" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="75">
+      <c r="A97" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="14">
+      <c r="B97" s="61">
         <v>43642</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="16" t="s">
+      <c r="C97" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="58" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="75">
+      <c r="A98" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B98" s="14">
+      <c r="B98" s="61">
         <v>43643</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="16" t="s">
+      <c r="C98" s="19" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="J98" s="30" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="60">
+      <c r="A99" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="14">
+      <c r="B99" s="61">
         <v>43644</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="16" t="s">
+      <c r="C99" s="19" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="L99" s="58" t="s">
+        <v>1324</v>
+      </c>
+      <c r="P99" s="30" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="60">
+      <c r="A100" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="14">
+      <c r="B100" s="61">
         <v>43645</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="17" t="s">
+      <c r="C100" s="19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="M100" s="58" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="60">
+      <c r="A101" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B101" s="14">
+      <c r="B101" s="61">
         <v>43646</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="I101" s="58" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="90">
+      <c r="A102" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" s="61">
+        <v>43647</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="K102" s="58" t="s">
+        <v>1335</v>
+      </c>
+      <c r="M102" s="21" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="75">
+      <c r="A103" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" s="61">
+        <v>43648</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="J103" s="58" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="75">
+      <c r="A104" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="61">
+        <v>43649</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="H104" s="30" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="90">
+      <c r="A105" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" s="61">
+        <v>43650</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="M105" s="58" t="s">
+        <v>1332</v>
+      </c>
+      <c r="O105" s="29" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="75">
+      <c r="A106" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106" s="61">
+        <v>43651</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D106" s="35"/>
+      <c r="E106" s="35"/>
+      <c r="G106" s="30" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="75">
+      <c r="A107" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="61">
+        <v>43652</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="58" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="75">
+      <c r="A108" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" s="61">
+        <v>43653</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="J108" s="30" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="75">
+      <c r="A109" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" s="61">
+        <v>43654</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="L109" s="58" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="75">
+      <c r="A110" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="61">
+        <v>43655</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="P110" s="51" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="75">
+      <c r="A111" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" s="61">
+        <v>43656</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="I111" s="30" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="75">
+      <c r="A112" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" s="61">
+        <v>43657</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="K112" s="30" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="75">
+      <c r="A113" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" s="61">
+        <v>43658</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="J113" s="30" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="75">
+      <c r="A114" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" s="61">
+        <v>43659</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="H114" s="58" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="75">
+      <c r="A115" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" s="61">
+        <v>43660</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D115" s="35"/>
+      <c r="E115" s="35"/>
+      <c r="G115" s="30" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="75">
+      <c r="A116" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" s="61">
+        <v>43661</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="M116" s="30" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="90">
+      <c r="A117" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117" s="61">
+        <v>43662</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35"/>
+      <c r="N117" s="30" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="75">
+      <c r="A118" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B118" s="61">
+        <v>43663</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="58" t="s">
+        <v>1369</v>
+      </c>
+      <c r="J118" s="30" t="s">
+        <v>1368</v>
+      </c>
+      <c r="M118" s="30" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="75">
+      <c r="A119" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B119" s="61">
+        <v>43664</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="L119" s="30" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="75">
+      <c r="A120" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" s="61">
+        <v>43665</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D120" s="35"/>
+      <c r="E120" s="35"/>
+      <c r="Q120" s="58" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="75">
+      <c r="A121" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="61">
+        <v>43666</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="K121" s="30" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="75">
+      <c r="A122" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122" s="61">
+        <v>43667</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="I122" s="58" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M122" s="58" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="60">
+      <c r="A123" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B123" s="61">
+        <v>43668</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="J123" s="58" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="75">
+      <c r="A124" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" s="61">
+        <v>43669</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="H124" s="29" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M124" s="30" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="90">
+      <c r="A125" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B125" s="61">
+        <v>43670</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="G125" s="58" t="s">
+        <v>1406</v>
+      </c>
+      <c r="M125" s="30" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="75">
+      <c r="A126" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B126" s="61">
+        <v>43671</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="58" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="75">
+      <c r="A127" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127" s="61">
+        <v>43672</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="N127" s="58" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="90">
+      <c r="A128" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B128" s="61">
+        <v>43673</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="J128" s="58" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="75">
+      <c r="A129" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" s="61">
+        <v>43674</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="O129" s="30" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="75">
+      <c r="A130" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B130" s="61">
+        <v>43675</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="H130" s="24" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q130" s="30" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="75">
+      <c r="A131" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B131" s="61">
+        <v>43676</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="L131" s="58" t="s">
+        <v>1408</v>
+      </c>
+      <c r="M131" s="58" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="75">
+      <c r="A132" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" s="61">
+        <v>43677</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="K132" s="30" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="75">
+      <c r="A133" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" s="61">
+        <v>43678</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="I133" s="58" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J133" s="30" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="75">
+      <c r="A134" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B134" s="61">
+        <v>43679</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="G134" s="58" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="75">
+      <c r="A135" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" s="61">
+        <v>43680</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="H135" s="58" t="s">
+        <v>1419</v>
+      </c>
+      <c r="M135" s="58" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="75">
+      <c r="A136" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="61">
+        <v>43681</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D136" s="35"/>
+      <c r="E136" s="35"/>
+      <c r="F136" s="30" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="75">
+      <c r="A137" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B137" s="61">
+        <v>43682</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="N137" s="25" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="75">
+      <c r="A138" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B138" s="61">
+        <v>43683</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="J138" s="30" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M138" s="58" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="75">
+      <c r="A139" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139" s="61">
+        <v>43684</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D139" s="35"/>
+      <c r="E139" s="35"/>
+      <c r="O139" s="51" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="75">
+      <c r="A140" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" s="61">
+        <v>43685</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="58" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="75">
+      <c r="A141" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B141" s="61">
+        <v>43686</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D141" s="35"/>
+      <c r="E141" s="35"/>
+      <c r="M141" s="58" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="75">
+      <c r="A142" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142" s="61">
+        <v>43687</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D142" s="35"/>
+      <c r="E142" s="35"/>
+      <c r="K142" s="30" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="75">
+      <c r="A143" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" s="61">
+        <v>43688</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35"/>
+      <c r="I143" s="30" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J143" s="58" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="75">
+      <c r="A144" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B144" s="61">
+        <v>43689</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
+      <c r="J144" s="58" t="s">
+        <v>1439</v>
+      </c>
+      <c r="L144" s="30" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="75">
+      <c r="A145" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" s="61">
+        <v>43690</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D145" s="35"/>
+      <c r="E145" s="35"/>
+      <c r="G145" s="30" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" ht="75">
+      <c r="A146" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" s="61">
+        <v>43691</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="H146" s="30" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" ht="75">
+      <c r="A147" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147" s="61">
+        <v>43692</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="N147" s="24" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" ht="75">
+      <c r="A148" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B148" s="61">
+        <v>43693</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D148" s="35"/>
+      <c r="E148" s="35"/>
+      <c r="J148" s="30" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" ht="75">
+      <c r="A149" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B149" s="61">
+        <v>43694</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D149" s="35"/>
+      <c r="E149" s="35"/>
+      <c r="Q149" s="30" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="75">
+      <c r="A150" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" s="61">
+        <v>43695</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D150" s="35"/>
+      <c r="E150" s="35"/>
+      <c r="O150" s="36" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="75">
+      <c r="A151" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B151" s="61">
+        <v>43696</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D151" s="35"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="30" t="s">
+        <v>1442</v>
+      </c>
+      <c r="P151" s="58" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" ht="75">
+      <c r="A152" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B152" s="61">
+        <v>43697</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D152" s="35"/>
+      <c r="E152" s="35"/>
+      <c r="M152" s="58" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" ht="75">
+      <c r="A153" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B153" s="61">
+        <v>43698</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D153" s="35"/>
+      <c r="E153" s="35"/>
+      <c r="I153" s="58" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="75">
+      <c r="A154" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B154" s="61">
+        <v>43699</v>
+      </c>
+      <c r="C154" s="19" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D154" s="35"/>
+      <c r="E154" s="35"/>
+      <c r="L154" s="58" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="75">
+      <c r="A155" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B155" s="61">
+        <v>43700</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D155" s="35"/>
+      <c r="E155" s="35"/>
+      <c r="G155" s="58" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="75">
+      <c r="A156" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B156" s="61">
+        <v>43701</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D156" s="35"/>
+      <c r="E156" s="35"/>
+      <c r="K156" s="58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="90">
+      <c r="A157" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B157" s="61">
+        <v>43702</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D157" s="35"/>
+      <c r="E157" s="35"/>
+      <c r="H157" s="51" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="75">
+      <c r="A158" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B158" s="61">
+        <v>43703</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D158" s="35"/>
+      <c r="E158" s="35"/>
+      <c r="J158" s="58" t="s">
+        <v>1462</v>
+      </c>
+      <c r="N158" s="58" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="75">
+      <c r="A159" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" s="61">
+        <v>43704</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D159" s="35"/>
+      <c r="E159" s="35"/>
+      <c r="M159" s="30" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="75">
+      <c r="A160" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160" s="61">
+        <v>43705</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D160" s="35"/>
+      <c r="E160" s="35"/>
+      <c r="O160" s="58" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="75">
+      <c r="A161" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B161" s="61">
+        <v>43706</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D161" s="35"/>
+      <c r="E161" s="35"/>
+      <c r="F161" s="30" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="90">
+      <c r="A162" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B162" s="61">
+        <v>43707</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D162" s="35"/>
+      <c r="E162" s="35"/>
+      <c r="I162" s="58" t="s">
+        <v>1487</v>
+      </c>
+      <c r="M162" s="30" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="75">
+      <c r="A163" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B163" s="61">
+        <v>43708</v>
+      </c>
+      <c r="C163" s="19" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D163" s="35"/>
+      <c r="E163" s="35"/>
+      <c r="J163" s="58" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="75">
+      <c r="A164" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B164" s="61">
+        <v>43709</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D164" s="35"/>
+      <c r="E164" s="35"/>
+      <c r="H164" s="30" t="s">
+        <v>1476</v>
+      </c>
+      <c r="L164" s="58" t="s">
+        <v>1490</v>
+      </c>
+      <c r="M164" s="30" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="75">
+      <c r="A165" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" s="61">
+        <v>43710</v>
+      </c>
+      <c r="C165" s="19" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D165" s="35"/>
+      <c r="E165" s="35"/>
+      <c r="P165" s="58" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="75">
+      <c r="A166" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="61">
+        <v>43711</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D166" s="35"/>
+      <c r="E166" s="35"/>
+      <c r="G166" s="58" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="75">
+      <c r="A167" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" s="61">
+        <v>43712</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D167" s="35"/>
+      <c r="E167" s="35"/>
+      <c r="K167" s="58" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="90">
+      <c r="A168" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" s="61">
+        <v>43713</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="J168" s="30" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="90">
+      <c r="A169" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B169" s="61">
+        <v>43714</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D169" s="35"/>
+      <c r="E169" s="35"/>
+      <c r="M169" s="51" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="75">
+      <c r="A170" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B170" s="61">
+        <v>43715</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D170" s="35"/>
+      <c r="E170" s="35"/>
+      <c r="N170" s="51" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="75">
+      <c r="A171" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B171" s="61">
+        <v>43716</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D171" s="35"/>
+      <c r="E171" s="35"/>
+      <c r="J171" s="51" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="75">
+      <c r="A172" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" s="61">
+        <v>43717</v>
+      </c>
+      <c r="C172" s="19" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D172" s="35"/>
+      <c r="E172" s="35"/>
+      <c r="O172" s="25" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="75">
+      <c r="A173" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B173" s="61">
+        <v>43718</v>
+      </c>
+      <c r="C173" s="19" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D173" s="35"/>
+      <c r="E173" s="35"/>
+      <c r="F173" s="51" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="75">
+      <c r="A174" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" s="61">
+        <v>43719</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D174" s="35"/>
+      <c r="E174" s="35"/>
+      <c r="H174" s="25" t="s">
+        <v>1492</v>
+      </c>
+      <c r="M174" s="25" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="90">
+      <c r="A175" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B175" s="61">
+        <v>43720</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D175" s="35"/>
+      <c r="E175" s="35"/>
+      <c r="L175" s="25" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" ht="75">
+      <c r="A176" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B176" s="61">
+        <v>43721</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D176" s="35"/>
+      <c r="E176" s="35"/>
+      <c r="J176" s="51" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="75">
+      <c r="A177" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B177" s="61">
+        <v>43722</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D177" s="67" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="90">
+      <c r="A178" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B178" s="61">
+        <v>43723</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D178" s="35"/>
+      <c r="E178" s="35"/>
+      <c r="I178" s="25" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="75">
+      <c r="A179" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" s="61">
+        <v>43724</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E179" s="25" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="90">
+      <c r="A180" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B180" s="61">
+        <v>43725</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E180" s="25" t="s">
+        <v>1528</v>
+      </c>
+      <c r="K180" s="25" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="75">
+      <c r="A181" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" s="61">
+        <v>43726</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>1509</v>
+      </c>
+      <c r="J181" s="25" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="75">
+      <c r="A182" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B182" s="61">
+        <v>43727</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="90">
+      <c r="A183" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B183" s="61">
+        <v>43728</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="75">
+      <c r="A184" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B184" s="61">
+        <v>43729</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="75">
+      <c r="A185" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B185" s="61">
+        <v>43730</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="90">
+      <c r="A186" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B186" s="61">
+        <v>43731</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="75">
+      <c r="A187" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B187" s="61">
+        <v>43732</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="90">
+      <c r="A188" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" s="61">
+        <v>43733</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="90">
+      <c r="A189" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" s="61">
+        <v>43734</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="90">
+      <c r="A190" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" s="61">
+        <v>43735</v>
+      </c>
+      <c r="C190" s="19" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="90">
+      <c r="A191" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B191" s="61">
+        <v>43736</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="90">
+      <c r="A192" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B192" s="61">
+        <v>43737</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="90">
+      <c r="A193" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B193" s="61">
+        <v>43738</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="90">
+      <c r="A194" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B194" s="61">
+        <v>43739</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B195" s="61">
+        <v>43740</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B196" s="61">
+        <v>43741</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B197" s="61">
+        <v>43742</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B198" s="61">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B199" s="61">
+        <v>43744</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B200" s="61">
+        <v>43745</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B201" s="61">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B202" s="61">
+        <v>43747</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B203" s="61">
+        <v>43748</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B204" s="61">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B205" s="61">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B206" s="61">
+        <v>43751</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B207" s="61">
+        <v>43752</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B208" s="61">
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B209" s="61">
+        <v>43754</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B210" s="61">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B211" s="61">
+        <v>43756</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B212" s="61">
+        <v>43757</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B213" s="61">
+        <v>43758</v>
       </c>
     </row>
   </sheetData>
@@ -11031,13 +15362,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="R72" sqref="R72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -12385,7 +16716,7 @@
         <v>105</v>
       </c>
       <c r="N37" s="38">
-        <f t="shared" ref="N37:N59" si="2">(G37+H37+I37)/10</f>
+        <f t="shared" ref="N37:N75" si="2">(G37+H37+I37)/10</f>
         <v>41.7</v>
       </c>
     </row>
@@ -12918,6 +17249,12 @@
       <c r="D54" s="1" t="s">
         <v>673</v>
       </c>
+      <c r="E54" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>688</v>
+      </c>
       <c r="G54" s="2">
         <v>173</v>
       </c>
@@ -13011,6 +17348,12 @@
       <c r="D57" s="1" t="s">
         <v>862</v>
       </c>
+      <c r="E57" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>865</v>
+      </c>
       <c r="G57" s="2">
         <v>253</v>
       </c>
@@ -13038,6 +17381,12 @@
       <c r="D58" s="1" t="s">
         <v>673</v>
       </c>
+      <c r="E58" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>688</v>
+      </c>
       <c r="G58" s="2">
         <v>189</v>
       </c>
@@ -13085,19 +17434,531 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" ht="34">
       <c r="A60" s="1" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="B60" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C60" s="32">
+        <v>43600</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G60" s="2">
+        <v>178</v>
+      </c>
+      <c r="H60" s="2">
+        <v>5</v>
+      </c>
+      <c r="I60" s="2">
+        <v>8</v>
+      </c>
+      <c r="N60" s="38">
+        <f t="shared" si="2"/>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="34">
       <c r="A61" s="1" t="s">
         <v>1140</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C61" s="32">
+        <v>43607</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G61" s="2">
+        <v>250</v>
+      </c>
+      <c r="H61" s="2">
+        <v>10</v>
+      </c>
+      <c r="I61" s="2">
+        <v>26</v>
+      </c>
+      <c r="N61" s="38">
+        <f t="shared" si="2"/>
+        <v>28.6</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
         <v>1141</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C62" s="32">
+        <v>43614</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G62" s="2">
+        <v>218</v>
+      </c>
+      <c r="H62" s="2">
+        <v>11</v>
+      </c>
+      <c r="I62" s="2">
+        <v>12</v>
+      </c>
+      <c r="N62" s="38">
+        <f t="shared" si="2"/>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C63" s="32">
+        <v>43621</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G63" s="2">
+        <v>145</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2</v>
+      </c>
+      <c r="N63" s="38">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C64" s="32">
+        <v>43628</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G64" s="2">
+        <v>159</v>
+      </c>
+      <c r="H64" s="2">
+        <v>7</v>
+      </c>
+      <c r="I64" s="2">
+        <v>8</v>
+      </c>
+      <c r="N64" s="38">
+        <f t="shared" si="2"/>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C65" s="32">
+        <v>43635</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G65" s="2">
+        <v>187</v>
+      </c>
+      <c r="H65" s="2">
+        <v>4</v>
+      </c>
+      <c r="I65" s="2">
+        <v>14</v>
+      </c>
+      <c r="N65" s="38">
+        <f t="shared" si="2"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C66" s="32">
+        <v>43642</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="G66" s="2">
+        <v>228</v>
+      </c>
+      <c r="H66" s="2">
+        <v>2</v>
+      </c>
+      <c r="I66" s="2">
+        <v>13</v>
+      </c>
+      <c r="N66" s="38">
+        <f t="shared" si="2"/>
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C67" s="32">
+        <v>43649</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="G67" s="2">
+        <v>191</v>
+      </c>
+      <c r="H67" s="2">
+        <v>4</v>
+      </c>
+      <c r="I67" s="2">
+        <v>8</v>
+      </c>
+      <c r="N67" s="38">
+        <f t="shared" si="2"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="34">
+      <c r="A68" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C68" s="32">
+        <v>43656</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G68" s="2">
+        <v>277</v>
+      </c>
+      <c r="H68" s="2">
+        <v>6</v>
+      </c>
+      <c r="I68" s="2">
+        <v>13</v>
+      </c>
+      <c r="N68" s="38">
+        <f t="shared" si="2"/>
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C69" s="32">
+        <v>43663</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="G69" s="2">
+        <v>184</v>
+      </c>
+      <c r="H69" s="2">
+        <v>8</v>
+      </c>
+      <c r="I69" s="2">
+        <v>7</v>
+      </c>
+      <c r="N69" s="38">
+        <f t="shared" si="2"/>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C70" s="32">
+        <v>43670</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G70" s="2">
+        <v>192</v>
+      </c>
+      <c r="H70" s="2">
+        <v>6</v>
+      </c>
+      <c r="I70" s="2">
+        <v>11</v>
+      </c>
+      <c r="N70" s="38">
+        <f t="shared" si="2"/>
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C71" s="32">
+        <v>43677</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G71" s="2">
+        <v>174</v>
+      </c>
+      <c r="H71" s="2">
+        <v>3</v>
+      </c>
+      <c r="I71" s="2">
+        <v>9</v>
+      </c>
+      <c r="N71" s="38">
+        <f t="shared" si="2"/>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="34">
+      <c r="A72" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C72" s="32">
+        <v>43684</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G72" s="2">
+        <v>164</v>
+      </c>
+      <c r="H72" s="2">
+        <v>5</v>
+      </c>
+      <c r="I72" s="2">
+        <v>17</v>
+      </c>
+      <c r="N72" s="38">
+        <f t="shared" si="2"/>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C73" s="32">
+        <v>43691</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G73" s="2">
+        <v>239</v>
+      </c>
+      <c r="H73" s="2">
+        <v>9</v>
+      </c>
+      <c r="I73" s="2">
+        <v>9</v>
+      </c>
+      <c r="N73" s="38">
+        <f t="shared" si="2"/>
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C74" s="32">
+        <v>43698</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="G74" s="2">
+        <v>177</v>
+      </c>
+      <c r="H74" s="2">
+        <v>2</v>
+      </c>
+      <c r="I74" s="2">
+        <v>12</v>
+      </c>
+      <c r="N74" s="38">
+        <f t="shared" si="2"/>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C75" s="32">
+        <v>43705</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G75" s="2">
+        <v>180</v>
+      </c>
+      <c r="H75" s="2">
+        <v>3</v>
+      </c>
+      <c r="I75" s="2">
+        <v>11</v>
+      </c>
+      <c r="N75" s="38">
+        <f t="shared" si="2"/>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -13116,8 +17977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13450,7 +18311,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AB14" sqref="AB14"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -15937,10 +20798,10 @@
   <dimension ref="A1:Y386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22480,4 +27341,528 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="69" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="2" customFormat="1">
+      <c r="B1" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="2" customFormat="1">
+      <c r="B2" s="10">
+        <v>43020</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D2" s="69">
+        <v>260.43</v>
+      </c>
+      <c r="E2" s="69">
+        <v>24874.28</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" s="2" customFormat="1">
+      <c r="B3" s="10">
+        <v>43031</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D3" s="69">
+        <v>5.07</v>
+      </c>
+      <c r="E3" s="69">
+        <v>1014.24</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="2" customFormat="1">
+      <c r="B4" s="10">
+        <v>43038</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D4" s="69">
+        <v>296.49</v>
+      </c>
+      <c r="E4" s="69">
+        <v>59297.59</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="2" customFormat="1">
+      <c r="B5" s="10">
+        <v>43061</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D5" s="69">
+        <v>339.24</v>
+      </c>
+      <c r="E5" s="69">
+        <v>67844.39</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="10">
+        <v>43061</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D6" s="69">
+        <v>140</v>
+      </c>
+      <c r="E6" s="69">
+        <v>27859.200000000001</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="10">
+        <v>43062</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D7" s="69">
+        <v>381.28</v>
+      </c>
+      <c r="E7" s="69">
+        <v>76261.210000000006</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="10">
+        <v>43110</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D8" s="69">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="E8" s="69">
+        <v>2027.06</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="10">
+        <v>43111</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D9" s="69">
+        <v>168.19</v>
+      </c>
+      <c r="E9" s="69">
+        <v>33468.839999999997</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="10">
+        <v>43112</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D10" s="69">
+        <v>273.5</v>
+      </c>
+      <c r="E10" s="69">
+        <v>54427.360000000001</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="10">
+        <v>43116</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D11" s="69">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E11" s="69">
+        <v>1020.97</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="10">
+        <v>43215</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D12" s="69">
+        <v>651.02</v>
+      </c>
+      <c r="E12" s="69">
+        <v>122070.55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="10">
+        <v>43236</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D13" s="69">
+        <v>416.35</v>
+      </c>
+      <c r="E13" s="69">
+        <v>76718.42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="10">
+        <v>43270</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D14" s="69">
+        <v>905.51</v>
+      </c>
+      <c r="E14" s="69">
+        <v>168487.36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="10">
+        <v>43265</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D15" s="69">
+        <v>326.97000000000003</v>
+      </c>
+      <c r="E15" s="69">
+        <v>65067.51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="10">
+        <v>43410</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D16" s="69">
+        <v>79.95</v>
+      </c>
+      <c r="E16" s="69">
+        <v>15910.05</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="10">
+        <v>43433</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D17" s="69">
+        <v>15.81</v>
+      </c>
+      <c r="E17" s="69">
+        <v>3146.19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="10">
+        <v>43444</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D18" s="69">
+        <v>8.02</v>
+      </c>
+      <c r="E18" s="69">
+        <v>1595.98</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="10">
+        <v>43496</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D19" s="69">
+        <v>29.02</v>
+      </c>
+      <c r="E19" s="69">
+        <v>14480.98</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="10">
+        <v>43513</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D20" s="69">
+        <v>15.18</v>
+      </c>
+      <c r="E20" s="69">
+        <v>3035.2</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="10">
+        <v>43515</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D21" s="69">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="E21" s="69">
+        <v>30459</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="10">
+        <v>43517</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D22" s="69">
+        <v>37.71</v>
+      </c>
+      <c r="E22" s="69">
+        <v>15702.29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="10">
+        <v>43528</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D23" s="69">
+        <v>165.73</v>
+      </c>
+      <c r="E23" s="69">
+        <v>33146</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="10">
+        <v>43556</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D24" s="69">
+        <v>1090.77</v>
+      </c>
+      <c r="E24" s="69">
+        <v>218154.26</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="10">
+        <v>43558</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D25" s="69">
+        <v>482.29</v>
+      </c>
+      <c r="E25" s="69">
+        <v>95986.55</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="10">
+        <v>43565</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D26" s="69">
+        <v>387.92</v>
+      </c>
+      <c r="E26" s="69">
+        <v>93553.67</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="10">
+        <v>43651</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D27" s="69">
+        <v>341.07</v>
+      </c>
+      <c r="E27" s="69">
+        <v>63913.53</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="10">
+        <v>43707</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D28" s="69">
+        <v>578.46</v>
+      </c>
+      <c r="E28" s="69">
+        <v>187116.93</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="10">
+        <v>43712</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D29" s="69">
+        <v>256.61</v>
+      </c>
+      <c r="E29" s="69">
+        <v>44969.8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>